--- a/PFF_SCR_TAX_ADAM/291024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/291024_analysis_by_cell_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,24 +466,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -492,63 +492,63 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,20 +583,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1K_TAX_02</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1K_TAX_03</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1K_TAX_04</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,11 +622,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1K_TAX_05</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,33 +635,33 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1K_TAX_05</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1K_TAX_06</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_TAX_07</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,27 +674,313 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_TAX_08</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>1K_SCR_05</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1K_SCR_06</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1K_SCR_06</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1K_SCR_07</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1K_SCR_10</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1K_TAX_01</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1K_TAX_01</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1K_TAX_01</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1K_TAX_02</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1K_TAX_03</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1K_TAX_04</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1K_TAX_05</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1K_TAX_05</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1K_TAX_05</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1K_TAX_06</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1K_TAX_06</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1K_TAX_07</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1K_TAX_07</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1K_TAX_07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>1K_TAX_08</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1K_TAX_08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1K_TAX_08</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1K_TAX_09</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/291024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/291024_analysis_by_cell_NEW.xlsx
@@ -499,7 +499,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">

--- a/PFF_SCR_TAX_ADAM/291024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/291024_analysis_by_cell_NEW.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
